--- a/샘플데이터/BROCOLLI RECIPE SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI RECIPE SAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooyu\Documents\카카오톡 받은 파일\sql모음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Team_broccoli\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>RECIPE_BOARD_NO</t>
   </si>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>RECIPE_MAIN_IMG</t>
-  </si>
-  <si>
-    <t>SEQ_REC.NEXTVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>황태양념구이</t>
@@ -555,7 +551,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,8 +592,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -606,21 +602,21 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -629,21 +625,21 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -652,21 +648,21 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -675,21 +671,21 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -698,21 +694,21 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -721,21 +717,21 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -744,20 +740,20 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
@@ -767,21 +763,21 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -790,21 +786,21 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -813,21 +809,21 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -836,21 +832,21 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -859,21 +855,21 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -882,21 +878,21 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -905,21 +901,21 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -928,21 +924,21 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -951,21 +947,21 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -974,21 +970,21 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -997,21 +993,21 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1020,21 +1016,21 @@
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1043,21 +1039,21 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1066,21 +1062,21 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1089,21 +1085,21 @@
         <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1112,21 +1108,21 @@
         <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -1135,21 +1131,21 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>8</v>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -1158,21 +1154,21 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>8</v>
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1181,21 +1177,21 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>8</v>
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -1204,21 +1200,21 @@
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>8</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1227,21 +1223,21 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>8</v>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1250,21 +1246,21 @@
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>8</v>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1273,20 +1269,21 @@
         <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/샘플데이터/BROCOLLI RECIPE SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI RECIPE SAMPLE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>RECIPE_BOARD_NO</t>
   </si>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>resources/recipe_uploadfiles/th20201049.jpg</t>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,7 +555,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,6 +605,9 @@
       <c r="C2">
         <v>14</v>
       </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
@@ -624,6 +631,9 @@
       <c r="C3">
         <v>15</v>
       </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
@@ -647,6 +657,9 @@
       <c r="C4">
         <v>16</v>
       </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
@@ -670,6 +683,9 @@
       <c r="C5">
         <v>18</v>
       </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
@@ -693,6 +709,9 @@
       <c r="C6">
         <v>20</v>
       </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
@@ -716,6 +735,9 @@
       <c r="C7">
         <v>22</v>
       </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
@@ -739,6 +761,9 @@
       <c r="C8">
         <v>23</v>
       </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
@@ -762,6 +787,9 @@
       <c r="C9">
         <v>24</v>
       </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
@@ -785,6 +813,9 @@
       <c r="C10">
         <v>25</v>
       </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
@@ -808,6 +839,9 @@
       <c r="C11">
         <v>26</v>
       </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
@@ -831,6 +865,9 @@
       <c r="C12">
         <v>27</v>
       </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
@@ -854,6 +891,9 @@
       <c r="C13">
         <v>28</v>
       </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -877,6 +917,9 @@
       <c r="C14">
         <v>33</v>
       </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
@@ -900,6 +943,9 @@
       <c r="C15">
         <v>34</v>
       </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" t="s">
         <v>21</v>
       </c>
@@ -923,6 +969,9 @@
       <c r="C16">
         <v>37</v>
       </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
@@ -946,6 +995,9 @@
       <c r="C17">
         <v>38</v>
       </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
@@ -969,6 +1021,9 @@
       <c r="C18">
         <v>39</v>
       </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
       <c r="E18" t="s">
         <v>24</v>
       </c>
@@ -992,6 +1047,9 @@
       <c r="C19">
         <v>41</v>
       </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
@@ -1015,6 +1073,9 @@
       <c r="C20">
         <v>42</v>
       </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
@@ -1038,6 +1099,9 @@
       <c r="C21">
         <v>44</v>
       </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
@@ -1061,6 +1125,9 @@
       <c r="C22">
         <v>45</v>
       </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
@@ -1084,6 +1151,9 @@
       <c r="C23">
         <v>51</v>
       </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
@@ -1107,6 +1177,9 @@
       <c r="C24">
         <v>53</v>
       </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
@@ -1130,6 +1203,9 @@
       <c r="C25">
         <v>54</v>
       </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
@@ -1153,6 +1229,9 @@
       <c r="C26">
         <v>57</v>
       </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
@@ -1176,6 +1255,9 @@
       <c r="C27">
         <v>58</v>
       </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
@@ -1198,6 +1280,9 @@
       </c>
       <c r="C28">
         <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -1222,6 +1307,9 @@
       <c r="C29">
         <v>62</v>
       </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
       <c r="E29" t="s">
         <v>16</v>
       </c>
@@ -1245,6 +1333,9 @@
       <c r="C30">
         <v>64</v>
       </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
@@ -1267,6 +1358,9 @@
       </c>
       <c r="C31">
         <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>

--- a/샘플데이터/BROCOLLI RECIPE SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI RECIPE SAMPLE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
   <si>
     <t>RECIPE_BOARD_NO</t>
   </si>
@@ -147,78 +147,6 @@
   </si>
   <si>
     <t>resources/recipe_uploadfiles/th20201025.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201026.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201027.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201028.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201029.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201030.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201031.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201032.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201033.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201034.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201035.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201036.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201037.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201038.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201039.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201040.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201041.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201042.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201043.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201044.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201045.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201046.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201047.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201048.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/th20201049.jpg</t>
   </si>
   <si>
     <t>SYSDATE</t>
@@ -606,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -632,7 +560,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -658,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -684,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -710,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -736,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -762,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -774,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -788,7 +716,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -800,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -814,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -826,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -840,7 +768,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -852,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -866,7 +794,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -878,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -892,7 +820,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -904,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -918,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -930,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -944,7 +872,7 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -956,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -970,7 +898,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -982,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -996,7 +924,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
@@ -1008,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1022,7 +950,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -1034,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1048,7 +976,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -1060,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1074,7 +1002,7 @@
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -1086,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1100,7 +1028,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1112,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1126,7 +1054,7 @@
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -1138,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1152,7 +1080,7 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1164,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1178,7 +1106,7 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1190,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1204,7 +1132,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1216,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1230,7 +1158,7 @@
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1242,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1256,7 +1184,7 @@
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -1268,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1282,7 +1210,7 @@
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -1294,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1308,7 +1236,7 @@
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -1320,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1334,7 +1262,7 @@
         <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -1346,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1360,7 +1288,7 @@
         <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -1372,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
